--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>632629.069177516</v>
+        <v>628462.5361758883</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747057</v>
+        <v>6528279.443747056</v>
       </c>
     </row>
     <row r="9">
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>31.25784031357141</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>30.58073358141466</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>38.83972215570805</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>250.8570494538693</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>373.8809755618044</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>120.7679082365842</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>132.697824295722</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>115.3009960905573</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>203.49208799255</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.07073011995457</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51.77925078256501</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>287.4490784864947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>168.9792238889537</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>176.1121874498914</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>93.26932297596981</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>348.0135555799698</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>328.5107569703947</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>75.03117915389052</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>87.56931538056975</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>110.6236401542068</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U23" t="n">
         <v>256.4743901009363</v>
@@ -2383,10 +2383,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>9.209444390032681</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2484,13 +2484,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>138.6962921071894</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>239.6907226285777</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6010546203353</v>
+        <v>246.2369230157541</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4377336227562</v>
+        <v>348.4805003144241</v>
       </c>
       <c r="H26" t="n">
         <v>266.3081572941393</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>113.4316496623688</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1931706608277571</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4356049655858</v>
+        <v>32.71894233334586</v>
       </c>
       <c r="T28" t="n">
         <v>239.6907226285777</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>234.9851346407183</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.769207491216734</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>210.3265910239962</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U31" t="n">
         <v>275.6010546203353</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>163.9302928975576</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>242.0706706342952</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>229.4711243518944</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>118.4264781088581</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T34" t="n">
         <v>239.6907226285777</v>
@@ -3246,7 +3246,7 @@
         <v>275.6010546203353</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>114.9219514512439</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>217.7466510435417</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>259.5800341643037</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T37" t="n">
         <v>239.6907226285777</v>
       </c>
       <c r="U37" t="n">
-        <v>246.2369230157541</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>131.5459693784985</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>253.795143942647</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>25.63771763455681</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>40.45894548467773</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.6907226285777</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>239.9420087649902</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>25.63771763455638</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T41" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>203.6025123001365</v>
       </c>
     </row>
     <row r="42">
@@ -3903,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>138.696292107189</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>29.73817485730894</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.6907226285777</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>292.1172498749899</v>
+        <v>223.1158174638626</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>38.46815833415827</v>
       </c>
       <c r="T44" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>134.8550812659119</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.6907226285777</v>
@@ -4194,16 +4194,16 @@
         <v>275.6010546203353</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.044406306631</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.6594827452864</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C9" t="n">
-        <v>117.6594827452864</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D9" t="n">
-        <v>117.6594827452864</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E9" t="n">
-        <v>117.6594827452864</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4922,13 +4922,13 @@
         <v>117.6594827452864</v>
       </c>
       <c r="W9" t="n">
-        <v>117.6594827452864</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X9" t="n">
-        <v>117.6594827452864</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y9" t="n">
-        <v>117.6594827452864</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4989,25 +4989,25 @@
         <v>42.53724282532548</v>
       </c>
       <c r="S10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1170.282040260528</v>
+        <v>475.073981139747</v>
       </c>
       <c r="C11" t="n">
-        <v>1170.282040260528</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D11" t="n">
-        <v>734.372255434972</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E11" t="n">
-        <v>300.5975105932671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F11" t="n">
-        <v>300.5975105932671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867026</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X11" t="n">
-        <v>1578.568163960874</v>
+        <v>1279.031102697184</v>
       </c>
       <c r="Y11" t="n">
-        <v>1170.282040260528</v>
+        <v>901.3735516246547</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.2907825224202</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="C13" t="n">
-        <v>724.2907825224202</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="D13" t="n">
-        <v>558.4127897239429</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>364.6336848309505</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>831.5726843696448</v>
+        <v>828.1746199579899</v>
       </c>
       <c r="M13" t="n">
-        <v>962.1770767081742</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1531.934791669708</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
-        <v>2069.369922243251</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2170.138978420935</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2226.289371088422</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U13" t="n">
-        <v>1947.902739137165</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V13" t="n">
-        <v>1660.947231007595</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W13" t="n">
-        <v>1388.920826593887</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X13" t="n">
-        <v>1143.529071927299</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.1094012414073</v>
+        <v>905.7210691049565</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1746.493890118551</v>
+        <v>1266.671191783997</v>
       </c>
       <c r="C14" t="n">
-        <v>1308.351417301975</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.351417301975</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447736</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X14" t="n">
-        <v>2154.780013818898</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="Y14" t="n">
-        <v>1746.493890118551</v>
+        <v>1692.970762268904</v>
       </c>
     </row>
     <row r="15">
@@ -5339,34 +5339,34 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5378,7 +5378,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R15" t="n">
         <v>1676.651116233592</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.0817647851411</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C16" t="n">
-        <v>443.520053268366</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D16" t="n">
-        <v>277.6420604698887</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E16" t="n">
-        <v>107.884056720626</v>
+        <v>471.655226289377</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895472</v>
+        <v>294.9481722511332</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>733.4227107706872</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180194</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.32005419002</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041283</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4265856715598</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="C17" t="n">
-        <v>765.4265856715598</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D17" t="n">
-        <v>765.4265856715598</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>2149.175122926217</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792596</v>
+        <v>1744.319668337251</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371906</v>
+        <v>1325.177204916562</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715598</v>
+        <v>916.8910812162151</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,25 +5585,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851411</v>
+        <v>730.9745012407179</v>
       </c>
       <c r="C19" t="n">
-        <v>443.520053268366</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D19" t="n">
-        <v>349.3086159189016</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E19" t="n">
-        <v>179.5506121696388</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>179.5506121696388</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5682,43 +5682,43 @@
         <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>818.7256495113487</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N19" t="n">
-        <v>1388.483364472883</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.32005419002</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041283</v>
+        <v>908.8655996749517</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1106.599419841792</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C20" t="n">
-        <v>668.4569470252159</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>668.4569470252159</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5767,37 +5767,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447736</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447736</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.185114027047</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="Y20" t="n">
-        <v>1532.8989903267</v>
+        <v>1154.573267142144</v>
       </c>
     </row>
     <row r="21">
@@ -5810,46 +5810,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.947661807679</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>807.9003835041283</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="C22" t="n">
-        <v>635.3386719873532</v>
+        <v>541.3407388691952</v>
       </c>
       <c r="D22" t="n">
-        <v>469.4606791888759</v>
+        <v>375.4627460707179</v>
       </c>
       <c r="E22" t="n">
-        <v>299.7026754396132</v>
+        <v>375.4627460707179</v>
       </c>
       <c r="F22" t="n">
-        <v>122.9956214013694</v>
+        <v>198.7556920324741</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895472</v>
+        <v>198.7556920324741</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5919,43 +5919,43 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180194</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.32005419002</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041283</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1421.781661388709</v>
+        <v>753.8743056375013</v>
       </c>
       <c r="C23" t="n">
-        <v>1421.781661388709</v>
+        <v>753.8743056375013</v>
       </c>
       <c r="D23" t="n">
-        <v>1421.781661388709</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="E23" t="n">
-        <v>988.0069165470043</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="F23" t="n">
-        <v>560.1394869562121</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="G23" t="n">
-        <v>160.7074327918119</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H23" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I23" t="n">
-        <v>122.835378888263</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786141</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K23" t="n">
-        <v>531.4362430141197</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L23" t="n">
-        <v>835.4773641398455</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M23" t="n">
         <v>1173.781693844502</v>
@@ -6004,37 +6004,37 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O23" t="n">
-        <v>1842.180380803856</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P23" t="n">
-        <v>2119.2362448742</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q23" t="n">
-        <v>2327.293660516458</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R23" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S23" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T23" t="n">
-        <v>2448.319106549846</v>
+        <v>2198.000343579825</v>
       </c>
       <c r="U23" t="n">
-        <v>2189.254066043849</v>
+        <v>1938.935303073829</v>
       </c>
       <c r="V23" t="n">
-        <v>1826.637115977676</v>
+        <v>1576.318353007656</v>
       </c>
       <c r="W23" t="n">
-        <v>1421.781661388709</v>
+        <v>1171.462898418689</v>
       </c>
       <c r="X23" t="n">
-        <v>1421.781661388709</v>
+        <v>1162.160429337848</v>
       </c>
       <c r="Y23" t="n">
-        <v>1421.781661388709</v>
+        <v>753.8743056375013</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H24" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I24" t="n">
-        <v>84.45847150237343</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J24" t="n">
         <v>181.8514775085927</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>704.2104052392299</v>
+        <v>733.8711442337558</v>
       </c>
       <c r="C25" t="n">
-        <v>531.6486937224548</v>
+        <v>561.3094327169807</v>
       </c>
       <c r="D25" t="n">
-        <v>365.7707009239775</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E25" t="n">
-        <v>365.7707009239775</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F25" t="n">
-        <v>189.0636468857337</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G25" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H25" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J25" t="n">
-        <v>110.0676242284526</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K25" t="n">
-        <v>210.475734554476</v>
+        <v>571.8138742903014</v>
       </c>
       <c r="L25" t="n">
-        <v>757.1734282372873</v>
+        <v>1118.511567973113</v>
       </c>
       <c r="M25" t="n">
-        <v>1352.129677761833</v>
+        <v>1483.45281759531</v>
       </c>
       <c r="N25" t="n">
-        <v>1926.639632806641</v>
+        <v>1615.703969482473</v>
       </c>
       <c r="O25" t="n">
-        <v>2253.55898255416</v>
+        <v>1737.859313719485</v>
       </c>
       <c r="P25" t="n">
-        <v>2358.083982536743</v>
+        <v>2189.89120767241</v>
       </c>
       <c r="Q25" t="n">
-        <v>2430.451674572189</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R25" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S25" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T25" t="n">
-        <v>2206.207265510879</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.822361853974</v>
+        <v>1957.4831008485</v>
       </c>
       <c r="V25" t="n">
-        <v>1640.866853724405</v>
+        <v>1670.527592718931</v>
       </c>
       <c r="W25" t="n">
-        <v>1368.840449310696</v>
+        <v>1398.501188305222</v>
       </c>
       <c r="X25" t="n">
-        <v>1123.448694644109</v>
+        <v>1153.109433638635</v>
       </c>
       <c r="Y25" t="n">
-        <v>896.0290239582171</v>
+        <v>925.689762952743</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>717.3965749763458</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="C26" t="n">
-        <v>717.3965749763458</v>
+        <v>1539.649555847311</v>
       </c>
       <c r="D26" t="n">
-        <v>717.3965749763458</v>
+        <v>1103.739771021756</v>
       </c>
       <c r="E26" t="n">
-        <v>717.3965749763458</v>
+        <v>669.9650261800509</v>
       </c>
       <c r="F26" t="n">
-        <v>717.3965749763458</v>
+        <v>669.9650261800509</v>
       </c>
       <c r="G26" t="n">
-        <v>317.9645208119457</v>
+        <v>317.9645208119458</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I26" t="n">
         <v>122.8353788882626</v>
@@ -6232,7 +6232,7 @@
         <v>531.4362430141192</v>
       </c>
       <c r="L26" t="n">
-        <v>835.4773641398451</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M26" t="n">
         <v>1173.781693844502</v>
@@ -6247,31 +6247,31 @@
         <v>2119.236244874199</v>
       </c>
       <c r="Q26" t="n">
-        <v>2327.293660516458</v>
+        <v>2327.293660516457</v>
       </c>
       <c r="R26" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S26" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T26" t="n">
-        <v>2333.741682648463</v>
+        <v>2236.857069169884</v>
       </c>
       <c r="U26" t="n">
-        <v>2333.741682648463</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="V26" t="n">
-        <v>1971.12473258229</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="W26" t="n">
-        <v>1971.12473258229</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="X26" t="n">
-        <v>1551.9822691616</v>
+        <v>1977.792028663888</v>
       </c>
       <c r="Y26" t="n">
-        <v>1143.696145461254</v>
+        <v>1977.792028663888</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H27" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I27" t="n">
-        <v>84.45847150237343</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J27" t="n">
         <v>181.8514775085927</v>
@@ -6314,13 +6314,13 @@
         <v>572.1378646061676</v>
       </c>
       <c r="M27" t="n">
-        <v>833.332514667877</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N27" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O27" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P27" t="n">
         <v>1481.560504773609</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.3360567891434</v>
+        <v>898.5806392247719</v>
       </c>
       <c r="C28" t="n">
-        <v>560.3360567891434</v>
+        <v>726.0189277079968</v>
       </c>
       <c r="D28" t="n">
-        <v>560.3360567891434</v>
+        <v>560.1409349095195</v>
       </c>
       <c r="E28" t="n">
-        <v>390.5780530398807</v>
+        <v>390.3829311602567</v>
       </c>
       <c r="F28" t="n">
-        <v>213.8709990016369</v>
+        <v>213.6758771220129</v>
       </c>
       <c r="G28" t="n">
-        <v>49.16150401062092</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H28" t="n">
-        <v>49.16150401062092</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I28" t="n">
-        <v>48.96638213099692</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J28" t="n">
-        <v>110.7761629654429</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K28" t="n">
-        <v>485.9427278626019</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L28" t="n">
-        <v>614.4305397774522</v>
+        <v>542.2681845220123</v>
       </c>
       <c r="M28" t="n">
-        <v>1209.386789301998</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.896744346806</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O28" t="n">
-        <v>1906.052088583818</v>
+        <v>2253.558982554159</v>
       </c>
       <c r="P28" t="n">
-        <v>2358.083982536743</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q28" t="n">
-        <v>2430.451674572189</v>
+        <v>2430.451674572188</v>
       </c>
       <c r="R28" t="n">
-        <v>2448.319106549846</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="S28" t="n">
-        <v>2304.444758099759</v>
+        <v>2415.269669849496</v>
       </c>
       <c r="T28" t="n">
-        <v>2062.332917060792</v>
+        <v>2173.157828810529</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.948013403888</v>
+        <v>1894.772925153625</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.992505274318</v>
+        <v>1607.817417024055</v>
       </c>
       <c r="W28" t="n">
-        <v>1224.96610086061</v>
+        <v>1335.791012610347</v>
       </c>
       <c r="X28" t="n">
-        <v>979.5743461940224</v>
+        <v>1090.399257943759</v>
       </c>
       <c r="Y28" t="n">
-        <v>752.1546755081306</v>
+        <v>1090.399257943759</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022.019536064938</v>
+        <v>1348.751029380071</v>
       </c>
       <c r="C29" t="n">
-        <v>1583.877063248361</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="D29" t="n">
-        <v>1147.967278422806</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E29" t="n">
-        <v>714.1925335811006</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F29" t="n">
-        <v>286.3251039903084</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G29" t="n">
-        <v>286.3251039903084</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H29" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I29" t="n">
         <v>122.8353788882626</v>
@@ -6466,10 +6466,10 @@
         <v>286.3580891786137</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141193</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L29" t="n">
-        <v>835.4773641398451</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M29" t="n">
         <v>1173.781693844502</v>
@@ -6484,31 +6484,31 @@
         <v>2119.236244874199</v>
       </c>
       <c r="Q29" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R29" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S29" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T29" t="n">
-        <v>2448.319106549845</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="U29" t="n">
-        <v>2448.319106549845</v>
+        <v>2194.193063285667</v>
       </c>
       <c r="V29" t="n">
-        <v>2448.319106549845</v>
+        <v>2194.193063285667</v>
       </c>
       <c r="W29" t="n">
-        <v>2448.319106549845</v>
+        <v>2194.193063285667</v>
       </c>
       <c r="X29" t="n">
-        <v>2448.319106549845</v>
+        <v>1775.050599864978</v>
       </c>
       <c r="Y29" t="n">
-        <v>2448.319106549845</v>
+        <v>1775.050599864978</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H30" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I30" t="n">
-        <v>48.96638213099691</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J30" t="n">
-        <v>146.3593881372162</v>
+        <v>119.8578922240948</v>
       </c>
       <c r="K30" t="n">
-        <v>312.8195479316071</v>
+        <v>286.3180520184857</v>
       </c>
       <c r="L30" t="n">
-        <v>536.645775234791</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M30" t="n">
-        <v>797.8404252965006</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N30" t="n">
-        <v>1065.948120536406</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O30" t="n">
-        <v>1311.214282591063</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P30" t="n">
         <v>1481.560504773609</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.8711442337558</v>
+        <v>784.01600546384</v>
       </c>
       <c r="C31" t="n">
-        <v>561.3094327169807</v>
+        <v>611.4542939470649</v>
       </c>
       <c r="D31" t="n">
-        <v>395.4314399185034</v>
+        <v>445.5763011485876</v>
       </c>
       <c r="E31" t="n">
-        <v>225.6734361692407</v>
+        <v>275.8182973993248</v>
       </c>
       <c r="F31" t="n">
-        <v>48.96638213099691</v>
+        <v>275.8182973993248</v>
       </c>
       <c r="G31" t="n">
-        <v>48.96638213099691</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="H31" t="n">
-        <v>48.96638213099691</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I31" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J31" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K31" t="n">
-        <v>571.8138742903014</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L31" t="n">
-        <v>1118.511567973113</v>
+        <v>757.1734282372873</v>
       </c>
       <c r="M31" t="n">
-        <v>1483.45281759531</v>
+        <v>1352.129677761833</v>
       </c>
       <c r="N31" t="n">
-        <v>1615.703969482473</v>
+        <v>1926.639632806641</v>
       </c>
       <c r="O31" t="n">
-        <v>1737.859313719485</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q31" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R31" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S31" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T31" t="n">
-        <v>2235.868004505405</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U31" t="n">
-        <v>1957.4831008485</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V31" t="n">
-        <v>1670.527592718931</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.501188305222</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X31" t="n">
-        <v>1153.109433638635</v>
+        <v>1203.254294868719</v>
       </c>
       <c r="Y31" t="n">
-        <v>925.689762952743</v>
+        <v>975.8346241828272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1784.660814205626</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="C32" t="n">
         <v>1346.51834138905</v>
@@ -6727,25 +6727,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S32" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T32" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U32" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V32" t="n">
-        <v>2448.319106549846</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W32" t="n">
-        <v>2448.319106549846</v>
+        <v>2004.60692637082</v>
       </c>
       <c r="X32" t="n">
-        <v>2029.176643129157</v>
+        <v>1772.817911873957</v>
       </c>
       <c r="Y32" t="n">
-        <v>2029.176643129157</v>
+        <v>1772.817911873957</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>48.96638213099692</v>
       </c>
       <c r="I33" t="n">
-        <v>48.96638213099692</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J33" t="n">
-        <v>146.3593881372162</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K33" t="n">
-        <v>286.3180520184858</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L33" t="n">
-        <v>510.1442793216697</v>
+        <v>572.1378646061676</v>
       </c>
       <c r="M33" t="n">
-        <v>771.3389293833792</v>
+        <v>833.332514667877</v>
       </c>
       <c r="N33" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O33" t="n">
-        <v>1284.712786677942</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P33" t="n">
-        <v>1481.560504773609</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q33" t="n">
         <v>1613.147991278647</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>704.2104052392299</v>
+        <v>923.0274043940195</v>
       </c>
       <c r="C34" t="n">
-        <v>584.5877000787672</v>
+        <v>750.4656928772445</v>
       </c>
       <c r="D34" t="n">
         <v>584.5877000787672</v>
@@ -6864,13 +6864,13 @@
         <v>210.475734554476</v>
       </c>
       <c r="L34" t="n">
-        <v>542.2681845220128</v>
+        <v>757.1734282372873</v>
       </c>
       <c r="M34" t="n">
-        <v>1137.224434046558</v>
+        <v>1352.129677761833</v>
       </c>
       <c r="N34" t="n">
-        <v>1711.734389091366</v>
+        <v>1926.639632806641</v>
       </c>
       <c r="O34" t="n">
         <v>2253.55898255416</v>
@@ -6885,25 +6885,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S34" t="n">
-        <v>2448.319106549846</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T34" t="n">
-        <v>2206.207265510879</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.822361853974</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V34" t="n">
-        <v>1640.866853724405</v>
+        <v>1667.865234160207</v>
       </c>
       <c r="W34" t="n">
-        <v>1368.840449310696</v>
+        <v>1395.838829746499</v>
       </c>
       <c r="X34" t="n">
-        <v>1123.448694644109</v>
+        <v>1150.447075079911</v>
       </c>
       <c r="Y34" t="n">
-        <v>896.0290239582171</v>
+        <v>923.0274043940195</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1177.178339249784</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C35" t="n">
-        <v>739.035866433207</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D35" t="n">
-        <v>476.8338117217892</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E35" t="n">
         <v>476.8338117217892</v>
@@ -6934,16 +6934,16 @@
         <v>48.96638213099691</v>
       </c>
       <c r="I35" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J35" t="n">
-        <v>286.3580891786135</v>
+        <v>286.3580891786137</v>
       </c>
       <c r="K35" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141193</v>
       </c>
       <c r="L35" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M35" t="n">
         <v>1173.781693844502</v>
@@ -6979,10 +6979,10 @@
         <v>2004.60692637082</v>
       </c>
       <c r="X35" t="n">
-        <v>1585.46446295013</v>
+        <v>2004.60692637082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1177.178339249784</v>
+        <v>2004.60692637082</v>
       </c>
     </row>
     <row r="36">
@@ -7031,13 +7031,13 @@
         <v>1101.440209907782</v>
       </c>
       <c r="O36" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P36" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q36" t="n">
-        <v>1675.141576563145</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R36" t="n">
         <v>1677.151305564151</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.8711442337558</v>
+        <v>926.9074153448049</v>
       </c>
       <c r="C37" t="n">
-        <v>561.3094327169807</v>
+        <v>754.3457038280299</v>
       </c>
       <c r="D37" t="n">
-        <v>395.4314399185034</v>
+        <v>754.3457038280299</v>
       </c>
       <c r="E37" t="n">
-        <v>225.6734361692407</v>
+        <v>584.5877000787672</v>
       </c>
       <c r="F37" t="n">
-        <v>48.96638213099691</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="G37" t="n">
-        <v>48.96638213099691</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H37" t="n">
-        <v>48.96638213099691</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I37" t="n">
         <v>48.96638213099691</v>
       </c>
       <c r="J37" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K37" t="n">
-        <v>571.8138742903014</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L37" t="n">
-        <v>928.3111860258958</v>
+        <v>542.2681845220123</v>
       </c>
       <c r="M37" t="n">
-        <v>1063.783568369528</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N37" t="n">
-        <v>1196.034720256692</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O37" t="n">
-        <v>1737.859313719485</v>
+        <v>2253.558982554159</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q37" t="n">
         <v>2430.451674572188</v>
@@ -7122,25 +7122,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S37" t="n">
-        <v>2448.319106549845</v>
+        <v>2304.444758099758</v>
       </c>
       <c r="T37" t="n">
-        <v>2206.207265510878</v>
+        <v>2062.332917060791</v>
       </c>
       <c r="U37" t="n">
-        <v>1957.4831008485</v>
+        <v>1783.948013403887</v>
       </c>
       <c r="V37" t="n">
-        <v>1670.527592718931</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.501188305222</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="X37" t="n">
-        <v>1153.109433638635</v>
+        <v>1251.60075060773</v>
       </c>
       <c r="Y37" t="n">
-        <v>925.689762952743</v>
+        <v>1118.726034063792</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1810.557498684977</v>
+        <v>1602.877072644249</v>
       </c>
       <c r="C38" t="n">
-        <v>1372.4150258684</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D38" t="n">
-        <v>936.5052410428443</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E38" t="n">
-        <v>502.7304962011395</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F38" t="n">
-        <v>74.86306661034723</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G38" t="n">
-        <v>74.86306661034723</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H38" t="n">
         <v>48.96638213099691</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3580891786135</v>
+        <v>286.3580891786137</v>
       </c>
       <c r="K38" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141193</v>
       </c>
       <c r="L38" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M38" t="n">
         <v>1173.781693844502</v>
@@ -7204,22 +7204,22 @@
         <v>2448.319106549845</v>
       </c>
       <c r="T38" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="U38" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="V38" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="W38" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="X38" t="n">
-        <v>2236.857069169884</v>
+        <v>2029.176643129156</v>
       </c>
       <c r="Y38" t="n">
-        <v>2236.857069169884</v>
+        <v>2029.176643129156</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>84.45847150237341</v>
       </c>
       <c r="J39" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240949</v>
       </c>
       <c r="K39" t="n">
-        <v>348.3116373029836</v>
+        <v>286.3180520184858</v>
       </c>
       <c r="L39" t="n">
-        <v>572.1378646061676</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M39" t="n">
-        <v>833.332514667877</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N39" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O39" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P39" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q39" t="n">
-        <v>1675.141576563145</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R39" t="n">
         <v>1677.151305564151</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.3360567891425</v>
+        <v>733.8711442337558</v>
       </c>
       <c r="C40" t="n">
-        <v>387.7743452723674</v>
+        <v>561.3094327169807</v>
       </c>
       <c r="D40" t="n">
-        <v>221.8963524738901</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E40" t="n">
-        <v>221.8963524738901</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F40" t="n">
-        <v>181.0287307721954</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G40" t="n">
-        <v>181.0287307721954</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H40" t="n">
         <v>48.96638213099691</v>
@@ -7332,22 +7332,22 @@
         <v>48.96638213099691</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K40" t="n">
-        <v>413.780372607162</v>
+        <v>485.2341891256115</v>
       </c>
       <c r="L40" t="n">
-        <v>542.2681845220123</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M40" t="n">
-        <v>1137.224434046558</v>
+        <v>1231.97634323386</v>
       </c>
       <c r="N40" t="n">
-        <v>1711.734389091366</v>
+        <v>1364.227495121024</v>
       </c>
       <c r="O40" t="n">
-        <v>2253.558982554159</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P40" t="n">
         <v>2358.083982536742</v>
@@ -7359,25 +7359,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S40" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T40" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.948013403887</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.992505274317</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.966100860609</v>
+        <v>1398.501188305222</v>
       </c>
       <c r="X40" t="n">
-        <v>979.5743461940215</v>
+        <v>1153.109433638635</v>
       </c>
       <c r="Y40" t="n">
-        <v>752.1546755081297</v>
+        <v>925.689762952743</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1810.557498684976</v>
+        <v>1784.660814205626</v>
       </c>
       <c r="C41" t="n">
-        <v>1372.415025868399</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D41" t="n">
-        <v>936.5052410428439</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E41" t="n">
-        <v>502.730496201139</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F41" t="n">
-        <v>74.86306661034678</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G41" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H41" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I41" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786133</v>
+        <v>286.3580891786136</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141189</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L41" t="n">
-        <v>835.4773641398447</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M41" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N41" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O41" t="n">
         <v>1842.180380803855</v>
@@ -7438,25 +7438,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S41" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T41" t="n">
-        <v>2236.857069169884</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U41" t="n">
-        <v>2236.857069169884</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V41" t="n">
-        <v>2236.857069169884</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W41" t="n">
-        <v>2236.857069169884</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="X41" t="n">
-        <v>2236.857069169884</v>
+        <v>1990.319917539097</v>
       </c>
       <c r="Y41" t="n">
-        <v>2236.857069169884</v>
+        <v>1784.660814205626</v>
       </c>
     </row>
     <row r="42">
@@ -7481,13 +7481,13 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G42" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H42" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I42" t="n">
-        <v>84.4584715023734</v>
+        <v>84.45847150237341</v>
       </c>
       <c r="J42" t="n">
         <v>119.8578922240949</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.3360567891425</v>
+        <v>704.2104052392294</v>
       </c>
       <c r="C43" t="n">
-        <v>387.7743452723674</v>
+        <v>531.6486937224544</v>
       </c>
       <c r="D43" t="n">
-        <v>387.7743452723674</v>
+        <v>365.7707009239771</v>
       </c>
       <c r="E43" t="n">
-        <v>387.7743452723674</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F43" t="n">
-        <v>211.0672912341236</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G43" t="n">
-        <v>211.0672912341236</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H43" t="n">
-        <v>79.00494259292512</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I43" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J43" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K43" t="n">
-        <v>571.8138742903013</v>
+        <v>571.8138742903014</v>
       </c>
       <c r="L43" t="n">
-        <v>1118.511567973113</v>
+        <v>833.5592768385928</v>
       </c>
       <c r="M43" t="n">
-        <v>1253.983950316745</v>
+        <v>969.0316591822252</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.235102203909</v>
+        <v>1543.541614227034</v>
       </c>
       <c r="O43" t="n">
-        <v>1737.859313719485</v>
+        <v>2085.366207689827</v>
       </c>
       <c r="P43" t="n">
         <v>2189.89120767241</v>
@@ -7596,25 +7596,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S43" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T43" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U43" t="n">
-        <v>1783.948013403887</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.992505274317</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W43" t="n">
-        <v>1224.966100860609</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X43" t="n">
-        <v>979.5743461940215</v>
+        <v>1123.448694644108</v>
       </c>
       <c r="Y43" t="n">
-        <v>752.1546755081297</v>
+        <v>896.0290239582166</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.96638213099692</v>
+        <v>2184.092868370027</v>
       </c>
       <c r="C44" t="n">
-        <v>48.96638213099692</v>
+        <v>1745.95039555345</v>
       </c>
       <c r="D44" t="n">
-        <v>48.96638213099692</v>
+        <v>1310.040610727894</v>
       </c>
       <c r="E44" t="n">
-        <v>48.96638213099692</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="F44" t="n">
-        <v>48.96638213099692</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G44" t="n">
         <v>48.96638213099692</v>
@@ -7678,22 +7678,22 @@
         <v>2409.462380959787</v>
       </c>
       <c r="T44" t="n">
-        <v>2198.000343579826</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U44" t="n">
-        <v>1938.93530307383</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V44" t="n">
-        <v>1576.318353007656</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W44" t="n">
-        <v>1171.462898418689</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="X44" t="n">
-        <v>752.320434998</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="Y44" t="n">
-        <v>344.0343112976534</v>
+        <v>2409.462380959787</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>84.45847150237343</v>
       </c>
       <c r="J45" t="n">
-        <v>181.8514775085927</v>
+        <v>119.8578922240948</v>
       </c>
       <c r="K45" t="n">
-        <v>348.3116373029836</v>
+        <v>286.3180520184857</v>
       </c>
       <c r="L45" t="n">
-        <v>572.1378646061676</v>
+        <v>510.1442793216697</v>
       </c>
       <c r="M45" t="n">
-        <v>833.332514667877</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O45" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P45" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q45" t="n">
-        <v>1675.141576563145</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R45" t="n">
         <v>1677.151305564151</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.785408143282</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C46" t="n">
-        <v>920.2236966265071</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D46" t="n">
-        <v>754.3457038280299</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E46" t="n">
-        <v>584.5877000787672</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F46" t="n">
-        <v>407.8806460405234</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G46" t="n">
-        <v>243.1711510495074</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H46" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I46" t="n">
         <v>48.96638213099692</v>
       </c>
       <c r="J46" t="n">
-        <v>174.6397023102582</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K46" t="n">
-        <v>549.8062672074172</v>
+        <v>485.2341891256116</v>
       </c>
       <c r="L46" t="n">
-        <v>1096.503960890229</v>
+        <v>1031.931882808423</v>
       </c>
       <c r="M46" t="n">
-        <v>1231.976343233861</v>
+        <v>1167.404265152055</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.227495121025</v>
+        <v>1299.655417039219</v>
       </c>
       <c r="O46" t="n">
-        <v>1906.052088583818</v>
+        <v>1841.480010502012</v>
       </c>
       <c r="P46" t="n">
-        <v>2358.083982536743</v>
+        <v>2293.511904454937</v>
       </c>
       <c r="Q46" t="n">
         <v>2430.451674572189</v>
@@ -7833,25 +7833,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S46" t="n">
-        <v>2304.444758099759</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T46" t="n">
-        <v>2062.332917060792</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.948013403888</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.948013403888</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W46" t="n">
-        <v>1511.921608990179</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.921608990179</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.604026862269</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
   </sheetData>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>141.468043217344</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.0002374943219</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>45.75904403825018</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9333,10 +9333,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O19" t="n">
-        <v>152.9002451589001</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9567,13 +9567,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>231.7867346248127</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>206.8323287984917</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7156956939295185</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>205.3582202552384</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10047,10 +10047,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>231.7867346248127</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>206.8323287984917</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>205.3582202552388</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10521,7 +10521,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>206.8323287984917</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>230.3126260815596</v>
+        <v>205.3582202552384</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>117.9039928161577</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>65.22432129475283</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>134.6036269024657</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>231.7867346248122</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.22432129475314</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.22432129475328</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>144.6506149534483</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>30.32228690153869</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>42.3258603470226</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>107.1269275599054</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.4600519978536</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23560,7 +23560,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>211.4589507939324</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>114.8692533779068</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>111.3145178010417</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23737,13 +23737,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>141.9879189067931</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23791,7 +23791,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>190.0115566765581</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>13.78824508190584</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>70.94988989452271</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>81.42344181331794</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>72.29614307268236</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>88.06258942971624</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>43.45130463390751</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
-        <v>155.6845171399326</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>405.7415943964497</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24.36610793391634</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
         <v>130.7417251547865</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>29.36413160458116</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>46.95723330833209</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>38.46815833415827</v>
       </c>
       <c r="T26" t="n">
-        <v>95.9157673437926</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
-        <v>61.3278254137111</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>109.7166626322399</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H29" t="n">
-        <v>31.32302265342099</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4743901009363</v>
+        <v>252.7051826097195</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,7 +24745,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T31" t="n">
-        <v>29.36413160458147</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>79.007544222364</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>179.9659041457635</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.3474170061614</v>
@@ -24979,10 +24979,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>185.479914434588</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>52.40961629274923</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>169.1640015970299</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>204.289923736517</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>171.9706528129962</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>29.36413160458116</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>93.59950460053429</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>179.9659041457639</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H38" t="n">
-        <v>240.6704396595825</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>38.46815833415827</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U38" t="n">
         <v>256.4743901009363</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>134.4810380131836</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0624000411058</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I40" t="n">
         <v>61.52099607453886</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>29.36413160458116</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>369.8000159881998</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H41" t="n">
         <v>266.3081572941393</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U41" t="n">
         <v>256.4743901009363</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>200.6007501632066</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>29.36413160458113</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>31.78282121722992</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>129.9193249050688</v>
+        <v>198.9207573161961</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>266.3081572941393</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>29.36413160458065</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1010676724018253</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>342960.2397436544</v>
+        <v>342960.2397436545</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>342960.2397436544</v>
+        <v>342960.2397436546</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>342960.2397436544</v>
+        <v>342960.2397436546</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>353046.2355425768</v>
+        <v>353046.2355425769</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>353046.2355425768</v>
+        <v>353046.2355425769</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>353046.2355425768</v>
+        <v>353046.2355425769</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>353046.2355425769</v>
+        <v>353046.2355425768</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379453.8588450989</v>
+        <v>379453.858845099</v>
       </c>
       <c r="C2" t="n">
         <v>379453.8588450989</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205463</v>
       </c>
       <c r="E2" t="n">
+        <v>228081.4783861851</v>
+      </c>
+      <c r="F2" t="n">
         <v>228081.4783861852</v>
-      </c>
-      <c r="F2" t="n">
-        <v>228081.4783861851</v>
       </c>
       <c r="G2" t="n">
         <v>228081.4783861851</v>
       </c>
       <c r="H2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="I2" t="n">
         <v>234682.5783707575</v>
@@ -26340,19 +26340,19 @@
         <v>234682.5783707575</v>
       </c>
       <c r="K2" t="n">
-        <v>234682.5783707575</v>
+        <v>234682.5783707576</v>
       </c>
       <c r="L2" t="n">
         <v>234682.5783707575</v>
       </c>
       <c r="M2" t="n">
-        <v>234682.5783707574</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="N2" t="n">
-        <v>234682.5783707574</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="O2" t="n">
-        <v>234682.5783707574</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="P2" t="n">
         <v>234682.5783707575</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.9804793567</v>
+        <v>18943.98047935648</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630179</v>
+        <v>10456.45543630177</v>
       </c>
       <c r="M3" t="n">
-        <v>136754.9043831154</v>
+        <v>136754.9043831153</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294841.7084545743</v>
       </c>
       <c r="E4" t="n">
+        <v>20967.98795247262</v>
+      </c>
+      <c r="F4" t="n">
         <v>20967.98795247263</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20967.98795247262</v>
       </c>
       <c r="G4" t="n">
         <v>20967.98795247263</v>
       </c>
       <c r="H4" t="n">
-        <v>20967.98795247262</v>
+        <v>20967.98795247264</v>
       </c>
       <c r="I4" t="n">
-        <v>21734.84895921211</v>
+        <v>21734.8489592121</v>
       </c>
       <c r="J4" t="n">
         <v>21734.84895921211</v>
       </c>
       <c r="K4" t="n">
-        <v>21734.8489592121</v>
+        <v>21734.84895921211</v>
       </c>
       <c r="L4" t="n">
         <v>21734.84895921211</v>
       </c>
       <c r="M4" t="n">
+        <v>21734.84895921211</v>
+      </c>
+      <c r="N4" t="n">
         <v>21734.8489592121</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21734.84895921211</v>
       </c>
       <c r="O4" t="n">
         <v>21734.8489592121</v>
@@ -26478,16 +26478,16 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="F5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="F5" t="n">
-        <v>46051.08120963781</v>
-      </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
         <v>47767.76961397016</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326607</v>
+        <v>47063.63581576456</v>
       </c>
       <c r="C6" t="n">
-        <v>47095.54253326607</v>
+        <v>47063.6358157645</v>
       </c>
       <c r="D6" t="n">
-        <v>16127.63411100601</v>
+        <v>16127.63411100607</v>
       </c>
       <c r="E6" t="n">
-        <v>-351423.100331907</v>
+        <v>-351976.980775129</v>
       </c>
       <c r="F6" t="n">
-        <v>161062.4092240747</v>
+        <v>160508.5287808528</v>
       </c>
       <c r="G6" t="n">
-        <v>161062.4092240747</v>
+        <v>160508.5287808527</v>
       </c>
       <c r="H6" t="n">
-        <v>161062.4092240747</v>
+        <v>160508.5287808527</v>
       </c>
       <c r="I6" t="n">
-        <v>146235.9793182185</v>
+        <v>145704.8612887367</v>
       </c>
       <c r="J6" t="n">
-        <v>165179.9597975752</v>
+        <v>164648.8417680932</v>
       </c>
       <c r="K6" t="n">
-        <v>165179.9597975753</v>
+        <v>164648.8417680933</v>
       </c>
       <c r="L6" t="n">
-        <v>154723.5043612735</v>
+        <v>154192.3863317915</v>
       </c>
       <c r="M6" t="n">
-        <v>28425.05541445973</v>
+        <v>27893.93738497793</v>
       </c>
       <c r="N6" t="n">
-        <v>165179.9597975752</v>
+        <v>164648.8417680932</v>
       </c>
       <c r="O6" t="n">
-        <v>165179.9597975751</v>
+        <v>164648.8417680932</v>
       </c>
       <c r="P6" t="n">
-        <v>165179.9597975752</v>
+        <v>164648.8417680932</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="F3" t="n">
+        <v>466.7019280932213</v>
+      </c>
+      <c r="G3" t="n">
         <v>466.7019280932212</v>
       </c>
-      <c r="F3" t="n">
-        <v>466.7019280932211</v>
-      </c>
-      <c r="G3" t="n">
-        <v>466.7019280932211</v>
-      </c>
       <c r="H3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
         <v>484.0972107528674</v>
       </c>
       <c r="J3" t="n">
+        <v>484.0972107528674</v>
+      </c>
+      <c r="K3" t="n">
         <v>484.0972107528675</v>
-      </c>
-      <c r="K3" t="n">
-        <v>484.0972107528674</v>
       </c>
       <c r="L3" t="n">
         <v>484.0972107528674</v>
@@ -26798,25 +26798,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="F4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="F4" t="n">
-        <v>590.081894361934</v>
-      </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
+        <v>612.0797766374614</v>
+      </c>
+      <c r="J4" t="n">
+        <v>612.0797766374614</v>
+      </c>
+      <c r="K4" t="n">
         <v>612.0797766374615</v>
-      </c>
-      <c r="J4" t="n">
-        <v>612.0797766374615</v>
-      </c>
-      <c r="K4" t="n">
-        <v>612.0797766374614</v>
       </c>
       <c r="L4" t="n">
         <v>612.0797766374615</v>
@@ -26828,7 +26828,7 @@
         <v>612.0797766374614</v>
       </c>
       <c r="O4" t="n">
-        <v>612.0797766374612</v>
+        <v>612.0797766374614</v>
       </c>
       <c r="P4" t="n">
         <v>612.0797766374615</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.3952826596464</v>
+        <v>17.39528265964623</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.99788227552745</v>
+        <v>21.9978822755271</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752751</v>
+        <v>41.31500304752744</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144064</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27937,19 +27937,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>51.29215968642859</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>152.8887931427233</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28025,7 +28025,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8762992535017</v>
+        <v>125.0365770977937</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>117.7799263568143</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
         <v>243.1682919906331</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31992,31 +31992,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233554</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32940,19 +32940,19 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H26" t="n">
-        <v>19.93069571707659</v>
+        <v>19.93069571707658</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879368</v>
+        <v>75.02776971879366</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K26" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613392</v>
       </c>
       <c r="M26" t="n">
         <v>341.7215451562188</v>
@@ -32961,10 +32961,10 @@
         <v>347.2509570157227</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321094</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518625</v>
+        <v>279.8544081518624</v>
       </c>
       <c r="Q26" t="n">
         <v>210.1590056992511</v>
@@ -32976,10 +32976,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T26" t="n">
-        <v>8.51913784953036</v>
+        <v>8.519137849530358</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1556895552170025</v>
+        <v>0.1556895552170024</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,10 +33022,10 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K27" t="n">
         <v>168.1415755498898</v>
@@ -33034,16 +33034,16 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N27" t="n">
-        <v>270.815853777682</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350076</v>
+        <v>247.7435980350075</v>
       </c>
       <c r="P27" t="n">
-        <v>136.2162957688583</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q27" t="n">
         <v>132.9166530353911</v>
@@ -33058,7 +33058,7 @@
         <v>4.197031478130991</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0685043222763492</v>
+        <v>0.06850432227634919</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248429</v>
+        <v>0.8729621833248428</v>
       </c>
       <c r="H28" t="n">
-        <v>7.7614274117427</v>
+        <v>7.761427411742699</v>
       </c>
       <c r="I28" t="n">
-        <v>26.25235365853256</v>
+        <v>26.25235365853255</v>
       </c>
       <c r="J28" t="n">
         <v>61.71842636106638</v>
@@ -33125,10 +33125,10 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.09867882368299</v>
+        <v>73.09867882368297</v>
       </c>
       <c r="R28" t="n">
-        <v>39.25155417022429</v>
+        <v>39.25155417022428</v>
       </c>
       <c r="S28" t="n">
         <v>15.21335004939748</v>
@@ -33137,7 +33137,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04761611909044603</v>
+        <v>0.04761611909044602</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,19 +33177,19 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H29" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I29" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K29" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M29" t="n">
         <v>341.7215451562188</v>
@@ -33198,10 +33198,10 @@
         <v>347.2509570157227</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q29" t="n">
         <v>210.1590056992511</v>
@@ -33213,10 +33213,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T29" t="n">
-        <v>8.519137849530358</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,10 +33259,10 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365583</v>
+        <v>35.7569906280014</v>
       </c>
       <c r="K30" t="n">
         <v>168.1415755498898</v>
@@ -33274,13 +33274,13 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P30" t="n">
-        <v>172.066891093481</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q30" t="n">
         <v>132.9166530353911</v>
@@ -33295,7 +33295,7 @@
         <v>4.197031478130991</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248429</v>
       </c>
       <c r="H31" t="n">
-        <v>7.761427411742699</v>
+        <v>7.7614274117427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J31" t="n">
         <v>61.71842636106638</v>
@@ -33362,10 +33362,10 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R31" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022429</v>
       </c>
       <c r="S31" t="n">
         <v>15.21335004939748</v>
@@ -33374,7 +33374,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044603</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,13 +33496,13 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J33" t="n">
         <v>98.37677374365583</v>
       </c>
       <c r="K33" t="n">
-        <v>141.3723877588582</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L33" t="n">
         <v>226.0870982860444</v>
@@ -33520,7 +33520,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973676</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959995</v>
@@ -33751,7 +33751,7 @@
         <v>270.8158537776819</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350075</v>
+        <v>185.1238149193532</v>
       </c>
       <c r="P36" t="n">
         <v>198.8360788845127</v>
@@ -33760,7 +33760,7 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R36" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959995</v>
       </c>
       <c r="S36" t="n">
         <v>19.34105365602257</v>
@@ -33973,7 +33973,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365583</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K39" t="n">
         <v>168.1415755498898</v>
@@ -33997,7 +33997,7 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R39" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959995</v>
       </c>
       <c r="S39" t="n">
         <v>19.34105365602257</v>
@@ -34210,7 +34210,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>35.75699062800152</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K42" t="n">
         <v>168.1415755498898</v>
@@ -34447,7 +34447,7 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365585</v>
+        <v>35.7569906280014</v>
       </c>
       <c r="K45" t="n">
         <v>168.1415755498898</v>
@@ -34471,7 +34471,7 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959995</v>
       </c>
       <c r="S45" t="n">
         <v>19.34105365602257</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447059</v>
+        <v>266.5900650540085</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>175.4722286363985</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916794</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646688</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233554</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>170.8810658749148</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,10 +35898,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
@@ -36050,13 +36050,13 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O19" t="n">
-        <v>271.8556808637099</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
@@ -36065,7 +36065,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
@@ -36287,13 +36287,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36302,7 +36302,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
         <v>307.1122435613393</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K24" t="n">
         <v>105.5217924342355</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>61.71842636106638</v>
+        <v>149.172653800147</v>
       </c>
       <c r="K25" t="n">
-        <v>101.4223336626499</v>
+        <v>378.9561261587465</v>
       </c>
       <c r="L25" t="n">
         <v>552.2198926089004</v>
       </c>
       <c r="M25" t="n">
-        <v>600.9659086106518</v>
+        <v>368.627524870906</v>
       </c>
       <c r="N25" t="n">
-        <v>580.313085903847</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O25" t="n">
-        <v>330.221565401534</v>
+        <v>123.3892366030423</v>
       </c>
       <c r="P25" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.0986788236828</v>
+        <v>242.9903706058367</v>
       </c>
       <c r="R25" t="n">
         <v>18.04791108854245</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61514823966228</v>
+        <v>74.61514823966226</v>
       </c>
       <c r="J26" t="n">
         <v>165.1744548387383</v>
@@ -36600,10 +36600,10 @@
         <v>247.553690742935</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613394</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562189</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N26" t="n">
         <v>347.2509570157226</v>
@@ -36612,10 +36612,10 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992513</v>
+        <v>210.1590056992509</v>
       </c>
       <c r="R26" t="n">
         <v>122.2479252862504</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462274</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N27" t="n">
         <v>270.8158537776819</v>
@@ -36691,7 +36691,7 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P27" t="n">
-        <v>136.2162957688583</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q27" t="n">
         <v>132.9166530353912</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.4341220549959</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K28" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
-        <v>129.7856686008589</v>
+        <v>335.1438888560973</v>
       </c>
       <c r="M28" t="n">
         <v>600.9659086106519</v>
       </c>
       <c r="N28" t="n">
-        <v>580.313085903847</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O28" t="n">
-        <v>123.3892366030425</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P28" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
         <v>73.0986788236828</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J29" t="n">
         <v>165.1744548387385</v>
       </c>
       <c r="K29" t="n">
-        <v>247.5536907429349</v>
+        <v>247.5536907429348</v>
       </c>
       <c r="L29" t="n">
         <v>307.1122435613393</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562187</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N29" t="n">
         <v>347.2509570157226</v>
@@ -36849,10 +36849,10 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R29" t="n">
         <v>122.2479252862504</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37677374365582</v>
+        <v>35.7569906280014</v>
       </c>
       <c r="K30" t="n">
         <v>168.1415755498898</v>
@@ -36919,7 +36919,7 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603128</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N30" t="n">
         <v>270.8158537776819</v>
@@ -36928,7 +36928,7 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P30" t="n">
-        <v>172.066891093481</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q30" t="n">
         <v>132.9166530353912</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K31" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L31" t="n">
         <v>552.2198926089004</v>
       </c>
       <c r="M31" t="n">
-        <v>368.627524870906</v>
+        <v>600.9659086106518</v>
       </c>
       <c r="N31" t="n">
-        <v>133.5870221082462</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030423</v>
+        <v>330.221565401534</v>
       </c>
       <c r="P31" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R31" t="n">
         <v>18.04791108854245</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J33" t="n">
         <v>98.37677374365583</v>
       </c>
       <c r="K33" t="n">
-        <v>141.3723877588582</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L33" t="n">
         <v>226.0870982860444</v>
@@ -37168,7 +37168,7 @@
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353912</v>
+        <v>70.29686991973676</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959992</v>
@@ -37232,16 +37232,16 @@
         <v>101.4223336626499</v>
       </c>
       <c r="L34" t="n">
-        <v>335.1438888560978</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M34" t="n">
-        <v>600.9659086106519</v>
+        <v>600.9659086106518</v>
       </c>
       <c r="N34" t="n">
-        <v>580.3130859038467</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O34" t="n">
-        <v>547.2975691543368</v>
+        <v>330.221565401534</v>
       </c>
       <c r="P34" t="n">
         <v>105.5808080632155</v>
@@ -37305,16 +37305,16 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L35" t="n">
         <v>307.1122435613393</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N35" t="n">
         <v>347.2509570157226</v>
@@ -37399,7 +37399,7 @@
         <v>270.8158537776819</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193532</v>
       </c>
       <c r="P36" t="n">
         <v>198.8360788845127</v>
@@ -37408,7 +37408,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R36" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K37" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L37" t="n">
-        <v>360.0982946824186</v>
+        <v>335.1438888560973</v>
       </c>
       <c r="M37" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5870221082462</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O37" t="n">
         <v>547.2975691543368</v>
       </c>
       <c r="P37" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R37" t="n">
         <v>18.04791108854245</v>
@@ -37542,16 +37542,16 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.553690742935</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L38" t="n">
         <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562187</v>
       </c>
       <c r="N38" t="n">
         <v>347.2509570157226</v>
@@ -37621,7 +37621,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365585</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K39" t="n">
         <v>168.1415755498898</v>
@@ -37645,7 +37645,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R39" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K40" t="n">
-        <v>219.3263264788076</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L40" t="n">
-        <v>129.7856686008589</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M40" t="n">
-        <v>600.9659086106519</v>
+        <v>202.0651115408461</v>
       </c>
       <c r="N40" t="n">
-        <v>580.3130859038467</v>
+        <v>133.5870221082462</v>
       </c>
       <c r="O40" t="n">
         <v>547.2975691543368</v>
       </c>
       <c r="P40" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q40" t="n">
         <v>73.0986788236828</v>
@@ -37779,7 +37779,7 @@
         <v>74.61514823966226</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387385</v>
+        <v>165.1744548387384</v>
       </c>
       <c r="K41" t="n">
         <v>247.5536907429349</v>
@@ -37788,7 +37788,7 @@
         <v>307.1122435613393</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N41" t="n">
         <v>347.2509570157226</v>
@@ -37858,7 +37858,7 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>35.75699062800152</v>
+        <v>35.7569906280015</v>
       </c>
       <c r="K42" t="n">
         <v>168.1415755498898</v>
@@ -37940,22 +37940,22 @@
         <v>149.172653800147</v>
       </c>
       <c r="K43" t="n">
-        <v>378.9561261587464</v>
+        <v>378.9561261587465</v>
       </c>
       <c r="L43" t="n">
-        <v>552.2198926089005</v>
+        <v>264.3892955033247</v>
       </c>
       <c r="M43" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082462</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O43" t="n">
-        <v>355.1759712278545</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P43" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
         <v>242.9903706058367</v>
@@ -38095,10 +38095,10 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365583</v>
+        <v>35.7569906280014</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498899</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L45" t="n">
         <v>226.0870982860444</v>
@@ -38119,7 +38119,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9427476558195</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K46" t="n">
-        <v>378.9561261587465</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L46" t="n">
-        <v>552.2198926089004</v>
+        <v>552.2198926089003</v>
       </c>
       <c r="M46" t="n">
         <v>136.8407902460933</v>
@@ -38195,7 +38195,7 @@
         <v>456.5978726797223</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.0986788236828</v>
+        <v>138.3230001184361</v>
       </c>
       <c r="R46" t="n">
         <v>18.04791108854245</v>
